--- a/Birds_and_Malaria/R_calc_for_malaria/Data/Spinus_2020_parasitemia_IL6_survival_final.xlsx
+++ b/Birds_and_Malaria/R_calc_for_malaria/Data/Spinus_2020_parasitemia_IL6_survival_final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9144" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Spinus_2020_parasitemia_IL6_sur" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="89">
   <si>
     <t xml:space="preserve">Ring </t>
   </si>
@@ -291,13 +291,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -315,23 +315,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="204"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,55 +338,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,8 +359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -427,8 +376,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -442,7 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -450,8 +421,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -472,7 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,19 +502,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,73 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,25 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +592,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,17 +675,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,17 +698,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,20 +717,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,70 +755,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
@@ -840,60 +840,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1166,7 +1166,9 @@
   <dimension ref="A1:J450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <pane ySplit="624" topLeftCell="A188" activePane="bottomLeft"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7567,7 +7569,7 @@
         <v>12</v>
       </c>
       <c r="H200">
-        <v>7.66</v>
+        <v>6.21</v>
       </c>
       <c r="I200" t="s">
         <v>14</v>
@@ -8014,8 +8016,8 @@
       <c r="G214">
         <v>85</v>
       </c>
-      <c r="H214">
-        <v>6.21</v>
+      <c r="H214" t="s">
+        <v>75</v>
       </c>
       <c r="I214" t="s">
         <v>12</v>
@@ -15591,7 +15593,9 @@
   <dimension ref="A1:L232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="624" topLeftCell="A4" activePane="topLeft"/>
       <selection activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
